--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2625350.85132824</v>
+        <v>2623098.771617034</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>64.49209805016829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>131.9577048658561</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498662</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>4.543542378764358</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>171.6734892200601</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,10 +908,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>275.6006602165974</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292598</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>129.5398680316056</v>
       </c>
     </row>
     <row r="6">
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>89.10231821867498</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>105.6685336178169</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>36.95558184798477</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>186.8460807091497</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>76.94983665475065</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>184.3755225607029</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560524</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>27.02919805175608</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533521003</v>
       </c>
     </row>
     <row r="14">
@@ -1664,13 +1664,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784685</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>118.4651697467941</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417122</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887056</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>79.05856366754516</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>191.6604102493268</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456783</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>26.1362719570585</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272898</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>41.0117587705994</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>154.0869401039757</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3041,10 +3041,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,13 +3193,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>120.6512573180103</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>32.84316668127781</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,7 +3436,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>55.52079624060383</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>91.89996056624759</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>125.2851635392055</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>193.7663624135851</v>
       </c>
     </row>
     <row r="44">
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.63412424768211</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1648.004869410819</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="C2" t="n">
-        <v>1279.042352470407</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>1340.243929312808</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>954.4556767145634</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4331,10 +4331,10 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
@@ -4346,7 +4346,7 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052367</v>
@@ -4367,13 +4367,13 @@
         <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450752</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450752</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>2034.604709474941</v>
+        <v>1698.509627919558</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,7 +4422,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
         <v>2407.41198488674</v>
@@ -4437,13 +4437,13 @@
         <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W3" t="n">
         <v>1525.370990471662</v>
@@ -4452,7 +4452,7 @@
         <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>657.6489837069648</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C4" t="n">
-        <v>657.6489837069648</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D4" t="n">
-        <v>507.5323442946291</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E4" t="n">
-        <v>359.619250712236</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218339</v>
@@ -4486,52 +4486,52 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757124</v>
+        <v>916.2975690719576</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757124</v>
+        <v>724.6116848987839</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757124</v>
+        <v>502.8450694683099</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757124</v>
+        <v>502.8450694683099</v>
       </c>
       <c r="V4" t="n">
-        <v>657.6489837069648</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="W4" t="n">
-        <v>657.6489837069648</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="X4" t="n">
-        <v>657.6489837069648</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y4" t="n">
-        <v>657.6489837069648</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1517.887535471214</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1148.925018530803</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>790.6593199240522</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>404.8710673258079</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>397.9255665766045</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>386.893520462005</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
@@ -4580,37 +4580,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.72178906653</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796416</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535336</v>
+        <v>2071.975386180637</v>
       </c>
       <c r="Y5" t="n">
-        <v>1904.487375535336</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228005</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>639.3706644025388</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C7" t="n">
-        <v>470.4344814746319</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4321398396066</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962282</v>
+        <v>78.3348699696228</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.788049458848</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886955</v>
       </c>
       <c r="O7" t="n">
         <v>809.0152357068853</v>
@@ -4750,25 +4750,25 @@
         <v>831.0565485757124</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025388</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="T7" t="n">
-        <v>639.3706644025388</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="U7" t="n">
-        <v>639.3706644025388</v>
+        <v>541.953681701356</v>
       </c>
       <c r="V7" t="n">
-        <v>639.3706644025388</v>
+        <v>435.2177891581066</v>
       </c>
       <c r="W7" t="n">
-        <v>639.3706644025388</v>
+        <v>435.2177891581066</v>
       </c>
       <c r="X7" t="n">
-        <v>639.3706644025388</v>
+        <v>435.2177891581066</v>
       </c>
       <c r="Y7" t="n">
-        <v>639.3706644025388</v>
+        <v>214.4252100145765</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1311.909787855436</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1311.909787855436</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>953.644089248686</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>567.8558366504417</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>156.8699318608341</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>145.8378857462347</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3026.581738278539</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794323</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450752</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919558</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.509627919558</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4872,19 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158128</v>
@@ -4896,10 +4896,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>290.456410946397</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C10" t="n">
-        <v>290.456410946397</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>290.456410946397</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>290.456410946397</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068849</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181842</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181842</v>
+        <v>507.4345062145379</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181842</v>
+        <v>507.4345062145379</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181842</v>
+        <v>252.750018008651</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181842</v>
+        <v>252.750018008651</v>
       </c>
       <c r="X10" t="n">
-        <v>692.8974549201669</v>
+        <v>252.750018008651</v>
       </c>
       <c r="Y10" t="n">
-        <v>472.1048757766367</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400661</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121592</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5242,7 +5242,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703058</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5267,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
@@ -5279,13 +5279,13 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5303,19 +5303,19 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5367,16 +5367,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>866.4638174991042</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711973</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2260.255592209639</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2040.65412723258</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1751.578900576778</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1496.894412370891</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1496.894412370891</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.7592298206043</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>620.8230468926974</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6026,10 +6026,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1804.131916132773</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925216</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101285</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F25" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G25" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H25" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683105</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2420.562808876161</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U28" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V28" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138395</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,25 +6540,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>214.9229991561138</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111712</v>
@@ -6722,28 +6722,28 @@
         <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="33">
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273902</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.28814409505</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1815.886107649656</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>990.5373202159259</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>821.601137288019</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D34" t="n">
-        <v>671.4844978756832</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>990.5373202159259</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,58 +6929,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925216</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>296.7882229101285</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F37" t="n">
-        <v>149.8982754122182</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684977</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.28814409505</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1815.886107649656</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
-        <v>2367.795837888943</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P39" t="n">
-        <v>2367.795837888943</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>631.5645865368208</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>481.447947124485</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>333.5348535420919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>186.6449060441816</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>186.6449060441816</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,16 +7397,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7415,13 +7415,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>746.8882603249857</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951538</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622261</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343192</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D43" t="n">
-        <v>597.2570777219835</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>449.3439841395904</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>302.45403664168</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>302.45403664168</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7655,13 +7655,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1522.21291626627</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2074.122646505557</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>620.8230468926974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>470.7064074803617</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>322.7933138979686</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2436.221543936137</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2253.366709591041</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664563</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>99.76050189075423</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>62.5611162548505</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.32043864788537</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>88.18825743108268</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>25.74504007796142</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>24.63391537253403</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>25.7450400779617</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>40.23897475306318</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>177.5728945814954</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>25.74504007796162</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>25.78270532855888</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>132.680971610991</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>110.003342051665</v>
+        <v>41.54258064659092</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>48.3947522799763</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>15.00954930701842</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>24.81829093850965</v>
       </c>
     </row>
     <row r="44">
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>55.74112246243957</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>782037.8688308137</v>
+        <v>782037.8688308136</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>782037.8688308137</v>
+        <v>782037.8688308136</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>782037.8688308137</v>
+        <v>782037.8688308136</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>782037.8688308137</v>
+        <v>782037.8688308136</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>782037.8688308137</v>
+        <v>782037.8688308136</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="J2" t="n">
         <v>645717.279752005</v>
-      </c>
-      <c r="F2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645717.2797520049</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.2797520047</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.2797520048</v>
       </c>
       <c r="K2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="L2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="N2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="P2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.2797520048</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>6.013392521708738e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972771</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551201</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405262</v>
+        <v>93596.74410405266</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405262</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189192</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189195</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189194</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
@@ -26445,16 +26445,16 @@
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
+        <v>16046.58397189208</v>
+      </c>
+      <c r="M4" t="n">
         <v>16046.58397189204</v>
       </c>
-      <c r="M4" t="n">
-        <v>16046.58397189199</v>
-      </c>
       <c r="N4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189198</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189198</v>
       </c>
       <c r="P4" t="n">
         <v>16046.58397189197</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-873442.0145016114</v>
+        <v>-873442.0145016116</v>
       </c>
       <c r="C6" t="n">
-        <v>455302.7312259809</v>
+        <v>455302.7312259807</v>
       </c>
       <c r="D6" t="n">
-        <v>455302.7312259808</v>
+        <v>455302.7312259802</v>
       </c>
       <c r="E6" t="n">
-        <v>203135.70414885</v>
+        <v>203100.9662234153</v>
       </c>
       <c r="F6" t="n">
-        <v>528548.1659562059</v>
+        <v>528513.4280307705</v>
       </c>
       <c r="G6" t="n">
-        <v>528548.1659562059</v>
+        <v>528513.4280307705</v>
       </c>
       <c r="H6" t="n">
-        <v>528548.1659562058</v>
+        <v>528513.4280307704</v>
       </c>
       <c r="I6" t="n">
-        <v>528548.1659562056</v>
+        <v>528513.42803077</v>
       </c>
       <c r="J6" t="n">
-        <v>311016.9635589283</v>
+        <v>310982.2256334931</v>
       </c>
       <c r="K6" t="n">
-        <v>528548.1659562059</v>
+        <v>528513.4280307703</v>
       </c>
       <c r="L6" t="n">
-        <v>528548.1659562057</v>
+        <v>528513.4280307704</v>
       </c>
       <c r="M6" t="n">
-        <v>443493.1380206937</v>
+        <v>443458.4000952584</v>
       </c>
       <c r="N6" t="n">
-        <v>528548.165956206</v>
+        <v>528513.42803077</v>
       </c>
       <c r="O6" t="n">
-        <v>528548.1659562059</v>
+        <v>528513.4280307704</v>
       </c>
       <c r="P6" t="n">
-        <v>528548.1659562057</v>
+        <v>528513.4280307702</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,25 +26790,25 @@
         <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.401455402292</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>290.1909435705147</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>274.9183408758553</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983812</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.38861029128302</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>80.46415410376787</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>19.00710417072304</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>256.698070624448</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27774,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>59.51315479953738</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983812</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>146.4691097060111</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>257.6521825393357</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>17.07188943047043</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>68.47121136818059</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>34.20913079139186</v>
       </c>
     </row>
     <row r="11">
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.133261760295336e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>5.142369289011372e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-6.605136968169532e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29761,10 +29761,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,37 +31118,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
@@ -31157,7 +31157,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31206,16 +31206,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883114</v>
@@ -31224,19 +31224,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138789</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987499</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31853,16 +31853,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P12" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>595.327537312171</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32233,34 +32233,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663286</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>491.1355220041054</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935914</v>
       </c>
       <c r="N21" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312099</v>
       </c>
       <c r="P24" t="n">
-        <v>295.9743940159484</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,10 +33260,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>247.3820194983584</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,13 +33275,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>567.7870775946151</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,40 +33494,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753707</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>186.6878763515707</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33734,25 +33734,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>508.8976500257891</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,7 +33977,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.118592441407</v>
+        <v>364.3208035245835</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34208,31 +34208,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>307.9814458135827</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>345.1232217852619</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L4" t="n">
         <v>157.2826706286436</v>
@@ -34869,13 +34869,13 @@
         <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340047</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127284</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966696</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014211</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35501,16 +35501,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P12" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9858252288377</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>349.0014880820871</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715731</v>
       </c>
       <c r="N21" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867654</v>
       </c>
       <c r="P24" t="n">
-        <v>161.9999866016181</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>120.5443928316917</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,13 +36923,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>425.1908331501707</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533524</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>44.0916319071262</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37233,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>366.7636161037707</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>187.1368183553855</v>
+        <v>224.339029438562</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37856,31 +37856,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>169.4270660337085</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>211.1488143709317</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
